--- a/WeiboManager/config/actions.xlsx
+++ b/WeiboManager/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="13545" windowHeight="3630"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12525" windowHeight="3630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,22 @@
   </si>
   <si>
     <t>{"code":3035,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchWeiboByKeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据关键字搜索微博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3036,prm:{"keyword":"keyword","count":"count"}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3036,"res":true,"pld":{"list":["msg对象"]}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1589,6 +1605,23 @@
       </c>
       <c r="E36" s="2" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
+        <v>3036</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/WeiboManager/config/actions.xlsx
+++ b/WeiboManager/config/actions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12525" windowHeight="3630"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12060" windowHeight="3465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>ActionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +612,70 @@
   </si>
   <si>
     <t>{"code":3036,"res":true,"pld":{"list":["msg对象"]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预登陆操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3037,prm:{"uid":"uid"}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3037,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadProxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3038,prm:{}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3038,"res":true,"pld":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加分组用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3039,prm:{"gid":"gid","count":"count"}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3039,"res":true,"pld":{"total":"total"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUserByGroupOnlyPush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除分组中的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{cod:3040,prm:{"gid":"gid","uidarray":["uid","uid"]}} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":3040,"res":true,"pld":{"total":"total"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteGroupUserByArray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,6 +1686,74 @@
       </c>
       <c r="E37" s="2" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>3037</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
+        <v>3038</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>3039</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
+        <v>3040</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
